--- a/MyCollectionShelf.WebApi/Book/API.xlsx
+++ b/MyCollectionShelf.WebApi/Book/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\MyCollectionShelf\MyCollectionShelf.WebApi\Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839CD17D-F6CC-4AA6-923D-C203E517EA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003B9C38-FC5E-4D78-9EA8-0510B6FF82F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>API Name</t>
   </si>
@@ -52,13 +52,20 @@
   </si>
   <si>
     <t>Google Books</t>
+  </si>
+  <si>
+    <t>Exemple</t>
+  </si>
+  <si>
+    <t>https://openlibrary.org/isbn/{isbn}.json
+https://covers.openlibrary.org/b/isbn/{isbn}-{size(L: large, M: medium, S: smal)}.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +78,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,10 +131,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -136,11 +152,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBBC04"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF34A853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -187,27 +231,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBBC04"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF34A853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -272,13 +295,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:D3" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:D3" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:E3" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:E3" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{835B3B60-72BC-49C8-B651-48A190B1E145}" name="Exemple" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -547,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,10 +582,11 @@
     <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="68.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,10 +597,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -585,9 +613,12 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -598,16 +629,17 @@
         <v>5</v>
       </c>
       <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:D3">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Not working anymore"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Working"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Planned"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -619,10 +651,13 @@
       <formula1>"All, Comics, Books / Comics"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://openlibrary.org/isbn/{isbn}.json" xr:uid="{E46EA989-E888-4935-B3B1-E902DCFA2FB8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/MyCollectionShelf.WebApi/Book/API.xlsx
+++ b/MyCollectionShelf.WebApi/Book/API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\MyCollectionShelf\MyCollectionShelf.WebApi\Book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Logiciels\Adobe\Creative Cloud Files\Programmation\C#\MyCollectionShelf\MyCollectionShelf.WebApi\Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003B9C38-FC5E-4D78-9EA8-0510B6FF82F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B3A170-72B5-49B9-8F3D-B9E8A1D3E8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>API Name</t>
   </si>
@@ -59,6 +59,12 @@
   <si>
     <t>https://openlibrary.org/isbn/{isbn}.json
 https://covers.openlibrary.org/b/isbn/{isbn}-{size(L: large, M: medium, S: smal)}.jpg</t>
+  </si>
+  <si>
+    <t>https://www.googleapis.com/books/v1/volumes?q=isbn:{isbn}</t>
+  </si>
+  <si>
+    <t>Isbn Search</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -154,16 +160,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -186,7 +195,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -233,6 +242,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFBBC04"/>
@@ -250,27 +262,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF34A853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBBC04"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBBC04"/>
         </patternFill>
       </fill>
     </dxf>
@@ -295,14 +286,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:E3" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:E3" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:E4" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:E4" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{835B3B60-72BC-49C8-B651-48A190B1E145}" name="Exemple" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{835B3B60-72BC-49C8-B651-48A190B1E145}" name="Exemple" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -571,22 +562,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,14 +587,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -618,7 +609,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -626,38 +617,51 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="5"/>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D3">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:D4">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Not working anymore"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Working"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{CE4DE145-6998-4203-ACB5-54853E103B2D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{CE4DE145-6998-4203-ACB5-54853E103B2D}">
       <formula1>"Planned, Working, Not working anymore"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{F7D7C22D-374D-4551-8CBF-869D0EB0AB6A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{F7D7C22D-374D-4551-8CBF-869D0EB0AB6A}">
       <formula1>"All, Comics, Books / Comics"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://openlibrary.org/isbn/{isbn}.json" xr:uid="{E46EA989-E888-4935-B3B1-E902DCFA2FB8}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{F949E66E-FE97-4165-8FD2-D60DBD64CE8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/MyCollectionShelf.WebApi/Book/API.xlsx
+++ b/MyCollectionShelf.WebApi/Book/API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Logiciels\Adobe\Creative Cloud Files\Programmation\C#\MyCollectionShelf\MyCollectionShelf.WebApi\Book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\MyCollectionShelf\MyCollectionShelf.WebApi\Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B3A170-72B5-49B9-8F3D-B9E8A1D3E8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114EAA53-A4BF-43EC-ABBA-CC901A6D325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>API Name</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>Isbn Search</t>
+  </si>
+  <si>
+    <t>Attempt made very little information and html page only to see</t>
+  </si>
+  <si>
+    <t>https://isbnsearch.org/isbn/{isbn}</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1Qh96hiwk0K4XSeKgq8ZkfOQt936_lximypODYRSag8w/edit#gid=0</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -155,9 +164,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -167,38 +173,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBBC04"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF34A853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -286,14 +275,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:E4" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:E4" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:E4" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{835B3B60-72BC-49C8-B651-48A190B1E145}" name="Exemple" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{835B3B60-72BC-49C8-B651-48A190B1E145}" name="Exemple" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -562,22 +551,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,14 +576,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -604,45 +593,55 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3"/>
+      <c r="J2" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D4">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Not working anymore"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Working"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Planned"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -657,11 +656,13 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://openlibrary.org/isbn/{isbn}.json" xr:uid="{E46EA989-E888-4935-B3B1-E902DCFA2FB8}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{F949E66E-FE97-4165-8FD2-D60DBD64CE8B}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{AB3BCF44-6A84-4FC5-9FD9-00626B916500}"/>
+    <hyperlink ref="J2" r:id="rId4" location="gid=0" xr:uid="{D2A5A754-7B24-4402-9782-B428FFB2EC63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/MyCollectionShelf.WebApi/Book/API.xlsx
+++ b/MyCollectionShelf.WebApi/Book/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\MyCollectionShelf\MyCollectionShelf.WebApi\Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114EAA53-A4BF-43EC-ABBA-CC901A6D325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4FDB59-642D-483C-91D3-BCE976FEE0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>API Name</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Working</t>
-  </si>
-  <si>
-    <t>Planned</t>
   </si>
   <si>
     <t>Type</t>
@@ -74,6 +71,18 @@
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/1Qh96hiwk0K4XSeKgq8ZkfOQt936_lximypODYRSag8w/edit#gid=0</t>
+  </si>
+  <si>
+    <t>Goodreads</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Not working anymore</t>
+  </si>
+  <si>
+    <t>Can't get a new key</t>
   </si>
 </sst>
 </file>
@@ -182,7 +191,119 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBBC04"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF34A853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBBC04"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF34A853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBBC04"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF34A853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBBC04"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF34A853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBBC04"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF34A853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -232,27 +353,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBBC04"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF34A853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -275,14 +375,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:E4" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E4" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:E5" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="A1:E5" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{835B3B60-72BC-49C8-B651-48A190B1E145}" name="Exemple" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{835B3B60-72BC-49C8-B651-48A190B1E145}" name="Exemple" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -551,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,8 +662,8 @@
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="60.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -571,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -588,68 +688,85 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3"/>
       <c r="J2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D4">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:D5">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Break"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Not working anymore"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Working"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{CE4DE145-6998-4203-ACB5-54853E103B2D}">
-      <formula1>"Planned, Working, Not working anymore"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{CE4DE145-6998-4203-ACB5-54853E103B2D}">
+      <formula1>"Planned, Working, Not working anymore, Break"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{F7D7C22D-374D-4551-8CBF-869D0EB0AB6A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{F7D7C22D-374D-4551-8CBF-869D0EB0AB6A}">
       <formula1>"All, Comics, Books / Comics"</formula1>
     </dataValidation>
   </dataValidations>
